--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 AR.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 AR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="688">
   <si>
     <t>Course</t>
   </si>
@@ -1144,6 +1144,12 @@
     <t>3.64%</t>
   </si>
   <si>
+    <t>COSC-440</t>
+  </si>
+  <si>
+    <t>FERNANDEZ-SOLIS J</t>
+  </si>
+  <si>
     <t>COSC-441</t>
   </si>
   <si>
@@ -1154,6 +1160,9 @@
   </si>
   <si>
     <t>59.09%</t>
+  </si>
+  <si>
+    <t>COSC-442</t>
   </si>
   <si>
     <t>COSC-443</t>
@@ -2405,7 +2414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H585"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5643,13 +5652,13 @@
         <v>377</v>
       </c>
       <c r="C272" t="n">
-        <v>3.409</v>
+        <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="E272" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="F272" t="s">
         <v>11</v>
@@ -5663,21 +5672,21 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="B275" t="s">
+        <v>379</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="D275" t="s">
+        <v>380</v>
+      </c>
+      <c r="E275" t="s">
         <v>381</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D275" t="s">
-        <v>178</v>
-      </c>
-      <c r="E275" t="s">
-        <v>22</v>
       </c>
       <c r="F275" t="s">
         <v>11</v>
@@ -5696,16 +5705,16 @@
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C278" t="n">
-        <v>4</v>
+        <v>3.7855</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E278" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F278" t="s">
         <v>11</v>
@@ -5727,197 +5736,197 @@
         <v>384</v>
       </c>
       <c r="C281" t="n">
-        <v>2.767</v>
+        <v>3.8</v>
       </c>
       <c r="D281" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="E281" t="s">
-        <v>386</v>
+        <v>22</v>
       </c>
       <c r="F281" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="G281" t="s">
         <v>11</v>
       </c>
       <c r="H281" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="B284" t="s">
+        <v>338</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4</v>
+      </c>
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" t="s">
+        <v>11</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>387</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.767</v>
+      </c>
+      <c r="D287" t="s">
+        <v>388</v>
+      </c>
+      <c r="E287" t="s">
+        <v>389</v>
+      </c>
+      <c r="F287" t="s">
         <v>390</v>
       </c>
-      <c r="C284" t="n">
-        <v>3.156</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" t="s">
         <v>391</v>
       </c>
-      <c r="E284" t="s">
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
         <v>392</v>
-      </c>
-      <c r="F284" t="s">
-        <v>141</v>
-      </c>
-      <c r="G284" t="s">
-        <v>11</v>
-      </c>
-      <c r="H284" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="B285" t="s">
-        <v>393</v>
-      </c>
-      <c r="C285" t="n">
-        <v>3.967</v>
-      </c>
-      <c r="D285" t="s">
-        <v>394</v>
-      </c>
-      <c r="E285" t="s">
-        <v>395</v>
-      </c>
-      <c r="F285" t="s">
-        <v>11</v>
-      </c>
-      <c r="G285" t="s">
-        <v>11</v>
-      </c>
-      <c r="H285" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="B288" t="s">
-        <v>397</v>
-      </c>
-      <c r="C288" t="n">
-        <v>3.0795</v>
-      </c>
-      <c r="D288" t="s">
-        <v>141</v>
-      </c>
-      <c r="E288" t="s">
-        <v>379</v>
-      </c>
-      <c r="F288" t="s">
-        <v>398</v>
-      </c>
-      <c r="G288" t="s">
-        <v>399</v>
-      </c>
-      <c r="H288" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="B289" t="s">
-        <v>400</v>
-      </c>
-      <c r="C289" t="n">
-        <v>2.9583</v>
-      </c>
-      <c r="D289" t="s">
-        <v>401</v>
-      </c>
-      <c r="E289" t="s">
-        <v>402</v>
-      </c>
-      <c r="F289" t="s">
-        <v>403</v>
-      </c>
-      <c r="G289" t="s">
-        <v>11</v>
-      </c>
-      <c r="H289" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="B290" t="s">
+        <v>393</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="D290" t="s">
+        <v>394</v>
+      </c>
+      <c r="E290" t="s">
+        <v>395</v>
+      </c>
+      <c r="F290" t="s">
+        <v>141</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>396</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="D291" t="s">
+        <v>397</v>
+      </c>
+      <c r="E291" t="s">
+        <v>398</v>
+      </c>
+      <c r="F291" t="s">
+        <v>11</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>400</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3.0795</v>
+      </c>
+      <c r="D294" t="s">
+        <v>141</v>
+      </c>
+      <c r="E294" t="s">
+        <v>381</v>
+      </c>
+      <c r="F294" t="s">
+        <v>401</v>
+      </c>
+      <c r="G294" t="s">
+        <v>402</v>
+      </c>
+      <c r="H294" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="B295" t="s">
+        <v>403</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2.9583</v>
+      </c>
+      <c r="D295" t="s">
         <v>404</v>
       </c>
-      <c r="C290" t="n">
-        <v>3.3935</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="E295" t="s">
         <v>405</v>
       </c>
-      <c r="E290" t="s">
-        <v>146</v>
-      </c>
-      <c r="F290" t="s">
-        <v>128</v>
-      </c>
-      <c r="G290" t="s">
-        <v>11</v>
-      </c>
-      <c r="H290" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
+      <c r="F295" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>353</v>
-      </c>
-      <c r="C293" t="n">
-        <v>3.694</v>
-      </c>
-      <c r="D293" t="s">
-        <v>407</v>
-      </c>
-      <c r="E293" t="s">
-        <v>408</v>
-      </c>
-      <c r="F293" t="s">
-        <v>11</v>
-      </c>
-      <c r="G293" t="s">
-        <v>11</v>
-      </c>
-      <c r="H293" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>409</v>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="B296" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C296" t="n">
-        <v>3.273</v>
+        <v>3.3935</v>
       </c>
       <c r="D296" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E296" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="F296" t="s">
-        <v>412</v>
+        <v>128</v>
       </c>
       <c r="G296" t="s">
         <v>11</v>
@@ -5928,55 +5937,55 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="B299" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="C299" t="n">
-        <v>3.0473</v>
+        <v>3.694</v>
       </c>
       <c r="D299" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E299" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F299" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="G299" t="s">
         <v>11</v>
       </c>
       <c r="H299" t="s">
-        <v>418</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="B302" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C302" t="n">
-        <v>2.9705</v>
+        <v>3.273</v>
       </c>
       <c r="D302" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E302" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F302" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G302" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="H302" t="s">
         <v>11</v>
@@ -5984,106 +5993,106 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="B305" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="C305" t="n">
+        <v>3.0473</v>
+      </c>
+      <c r="D305" t="s">
+        <v>418</v>
+      </c>
+      <c r="E305" t="s">
+        <v>419</v>
+      </c>
+      <c r="F305" t="s">
+        <v>420</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="B308" t="s">
+        <v>423</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2.9705</v>
+      </c>
+      <c r="D308" t="s">
+        <v>424</v>
+      </c>
+      <c r="E308" t="s">
+        <v>425</v>
+      </c>
+      <c r="F308" t="s">
+        <v>426</v>
+      </c>
+      <c r="G308" t="s">
+        <v>427</v>
+      </c>
+      <c r="H308" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="B311" t="s">
+        <v>379</v>
+      </c>
+      <c r="C311" t="n">
         <v>4</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D311" t="s">
         <v>10</v>
       </c>
-      <c r="E305" t="s">
-        <v>11</v>
-      </c>
-      <c r="F305" t="s">
-        <v>11</v>
-      </c>
-      <c r="G305" t="s">
-        <v>11</v>
-      </c>
-      <c r="H305" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
-      <c r="B306" t="s">
-        <v>390</v>
-      </c>
-      <c r="C306" t="n">
-        <v>3.454</v>
-      </c>
-      <c r="D306" t="s">
-        <v>426</v>
-      </c>
-      <c r="E306" t="s">
-        <v>11</v>
-      </c>
-      <c r="F306" t="s">
-        <v>11</v>
-      </c>
-      <c r="G306" t="s">
-        <v>427</v>
-      </c>
-      <c r="H306" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="B309" t="s">
-        <v>367</v>
-      </c>
-      <c r="C309" t="n">
-        <v>3.656</v>
-      </c>
-      <c r="D309" t="s">
-        <v>429</v>
-      </c>
-      <c r="E309" t="s">
-        <v>430</v>
-      </c>
-      <c r="F309" t="s">
-        <v>431</v>
-      </c>
-      <c r="G309" t="s">
-        <v>11</v>
-      </c>
-      <c r="H309" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
-        <v>432</v>
+      <c r="E311" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" t="s">
+        <v>11</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+      <c r="H311" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="B312" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="C312" t="n">
-        <v>3.65</v>
+        <v>3.454</v>
       </c>
       <c r="D312" t="s">
-        <v>140</v>
+        <v>429</v>
       </c>
       <c r="E312" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F312" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="G312" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="H312" t="s">
         <v>11</v>
@@ -6091,24 +6100,24 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="B315" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="C315" t="n">
-        <v>2.917</v>
+        <v>3.656</v>
       </c>
       <c r="D315" t="s">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="E315" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F315" t="s">
-        <v>141</v>
+        <v>434</v>
       </c>
       <c r="G315" t="s">
         <v>11</v>
@@ -6119,24 +6128,24 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="B318" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C318" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="D318" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E318" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F318" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="G318" t="s">
         <v>11</v>
@@ -6152,25 +6161,25 @@
     </row>
     <row r="321" spans="1:8">
       <c r="B321" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C321" t="n">
-        <v>3.6</v>
+        <v>2.917</v>
       </c>
       <c r="D321" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E321" t="s">
-        <v>128</v>
+        <v>438</v>
       </c>
       <c r="F321" t="s">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="G321" t="s">
         <v>11</v>
       </c>
       <c r="H321" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -6180,269 +6189,228 @@
     </row>
     <row r="324" spans="1:8">
       <c r="B324" t="s">
+        <v>436</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>23</v>
+      </c>
+      <c r="E324" t="s">
+        <v>60</v>
+      </c>
+      <c r="F324" t="s">
+        <v>11</v>
+      </c>
+      <c r="G324" t="s">
+        <v>11</v>
+      </c>
+      <c r="H324" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" t="s">
         <v>440</v>
       </c>
-      <c r="C324" t="n">
+    </row>
+    <row r="327" spans="1:8">
+      <c r="B327" t="s">
+        <v>291</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>178</v>
+      </c>
+      <c r="E327" t="s">
+        <v>128</v>
+      </c>
+      <c r="F327" t="s">
+        <v>441</v>
+      </c>
+      <c r="G327" t="s">
+        <v>11</v>
+      </c>
+      <c r="H327" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="B330" t="s">
+        <v>443</v>
+      </c>
+      <c r="C330" t="n">
         <v>3.2715</v>
       </c>
-      <c r="D324" t="s">
-        <v>441</v>
-      </c>
-      <c r="E324" t="s">
-        <v>442</v>
-      </c>
-      <c r="F324" t="s">
-        <v>443</v>
-      </c>
-      <c r="G324" t="s">
+      <c r="D330" t="s">
         <v>444</v>
       </c>
-      <c r="H324" t="s">
+      <c r="E330" t="s">
+        <v>445</v>
+      </c>
+      <c r="F330" t="s">
+        <v>446</v>
+      </c>
+      <c r="G330" t="s">
+        <v>447</v>
+      </c>
+      <c r="H330" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
-      <c r="B325" t="s">
-        <v>113</v>
-      </c>
-      <c r="C325" t="n">
-        <v>3.9721</v>
-      </c>
-      <c r="D325" t="s">
-        <v>445</v>
-      </c>
-      <c r="E325" t="s">
-        <v>446</v>
-      </c>
-      <c r="F325" t="s">
-        <v>11</v>
-      </c>
-      <c r="G325" t="s">
-        <v>11</v>
-      </c>
-      <c r="H325" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
-      <c r="A327" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
-      <c r="B328" t="s">
-        <v>448</v>
-      </c>
-      <c r="C328" t="n">
-        <v>3.273</v>
-      </c>
-      <c r="D328" t="s">
-        <v>167</v>
-      </c>
-      <c r="E328" t="s">
-        <v>449</v>
-      </c>
-      <c r="F328" t="s">
-        <v>427</v>
-      </c>
-      <c r="G328" t="s">
-        <v>11</v>
-      </c>
-      <c r="H328" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
-      <c r="A330" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="B331" t="s">
+        <v>113</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.9721</v>
+      </c>
+      <c r="D331" t="s">
+        <v>448</v>
+      </c>
+      <c r="E331" t="s">
+        <v>449</v>
+      </c>
+      <c r="F331" t="s">
+        <v>11</v>
+      </c>
+      <c r="G331" t="s">
+        <v>11</v>
+      </c>
+      <c r="H331" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="B334" t="s">
         <v>451</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C334" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="D334" t="s">
+        <v>167</v>
+      </c>
+      <c r="E334" t="s">
+        <v>452</v>
+      </c>
+      <c r="F334" t="s">
+        <v>430</v>
+      </c>
+      <c r="G334" t="s">
+        <v>11</v>
+      </c>
+      <c r="H334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="B337" t="s">
+        <v>454</v>
+      </c>
+      <c r="C337" t="n">
         <v>3.412</v>
       </c>
-      <c r="D331" t="s">
-        <v>452</v>
-      </c>
-      <c r="E331" t="s">
-        <v>452</v>
-      </c>
-      <c r="F331" t="s">
+      <c r="D337" t="s">
+        <v>455</v>
+      </c>
+      <c r="E337" t="s">
+        <v>455</v>
+      </c>
+      <c r="F337" t="s">
         <v>175</v>
       </c>
-      <c r="G331" t="s">
-        <v>11</v>
-      </c>
-      <c r="H331" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
-      <c r="B332" t="s">
-        <v>453</v>
-      </c>
-      <c r="C332" t="n">
+      <c r="G337" t="s">
+        <v>11</v>
+      </c>
+      <c r="H337" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="B338" t="s">
+        <v>456</v>
+      </c>
+      <c r="C338" t="n">
         <v>3.9705</v>
       </c>
-      <c r="D332" t="s">
-        <v>454</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="D338" t="s">
+        <v>457</v>
+      </c>
+      <c r="E338" t="s">
         <v>108</v>
       </c>
-      <c r="F332" t="s">
-        <v>11</v>
-      </c>
-      <c r="G332" t="s">
-        <v>11</v>
-      </c>
-      <c r="H332" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
-      <c r="B333" t="s">
-        <v>455</v>
-      </c>
-      <c r="C333" t="n">
-        <v>3.316</v>
-      </c>
-      <c r="D333" t="s">
-        <v>456</v>
-      </c>
-      <c r="E333" t="s">
-        <v>457</v>
-      </c>
-      <c r="F333" t="s">
-        <v>11</v>
-      </c>
-      <c r="G333" t="s">
-        <v>11</v>
-      </c>
-      <c r="H333" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="A335" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>448</v>
-      </c>
-      <c r="C336" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="D336" t="s">
-        <v>443</v>
-      </c>
-      <c r="E336" t="s">
-        <v>459</v>
-      </c>
-      <c r="F336" t="s">
-        <v>427</v>
-      </c>
-      <c r="G336" t="s">
-        <v>11</v>
-      </c>
-      <c r="H336" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" t="s">
-        <v>460</v>
+      <c r="F338" t="s">
+        <v>11</v>
+      </c>
+      <c r="G338" t="s">
+        <v>11</v>
+      </c>
+      <c r="H338" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="B339" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C339" t="n">
-        <v>3.588</v>
+        <v>3.316</v>
       </c>
       <c r="D339" t="s">
-        <v>185</v>
+        <v>459</v>
       </c>
       <c r="E339" t="s">
+        <v>460</v>
+      </c>
+      <c r="F339" t="s">
+        <v>11</v>
+      </c>
+      <c r="G339" t="s">
+        <v>11</v>
+      </c>
+      <c r="H339" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" t="s">
         <v>461</v>
-      </c>
-      <c r="F339" t="s">
-        <v>175</v>
-      </c>
-      <c r="G339" t="s">
-        <v>11</v>
-      </c>
-      <c r="H339" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
-      <c r="B340" t="s">
-        <v>453</v>
-      </c>
-      <c r="C340" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D340" t="s">
-        <v>462</v>
-      </c>
-      <c r="E340" t="s">
-        <v>463</v>
-      </c>
-      <c r="F340" t="s">
-        <v>11</v>
-      </c>
-      <c r="G340" t="s">
-        <v>11</v>
-      </c>
-      <c r="H340" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="B341" t="s">
-        <v>464</v>
-      </c>
-      <c r="C341" t="n">
-        <v>3.733</v>
-      </c>
-      <c r="D341" t="s">
-        <v>178</v>
-      </c>
-      <c r="E341" t="s">
-        <v>465</v>
-      </c>
-      <c r="F341" t="s">
-        <v>58</v>
-      </c>
-      <c r="G341" t="s">
-        <v>11</v>
-      </c>
-      <c r="H341" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="B342" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C342" t="n">
-        <v>4</v>
+        <v>2.909</v>
       </c>
       <c r="D342" t="s">
-        <v>10</v>
+        <v>446</v>
       </c>
       <c r="E342" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="F342" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="G342" t="s">
         <v>11</v>
@@ -6451,49 +6419,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
-      <c r="B343" t="s">
-        <v>467</v>
-      </c>
-      <c r="C343" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D343" t="s">
-        <v>66</v>
-      </c>
-      <c r="E343" t="s">
-        <v>66</v>
-      </c>
-      <c r="F343" t="s">
-        <v>130</v>
-      </c>
-      <c r="G343" t="s">
-        <v>11</v>
-      </c>
-      <c r="H343" t="s">
-        <v>11</v>
+    <row r="344" spans="1:8">
+      <c r="A344" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" t="s">
-        <v>468</v>
+      <c r="B345" t="s">
+        <v>454</v>
+      </c>
+      <c r="C345" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="D345" t="s">
+        <v>185</v>
+      </c>
+      <c r="E345" t="s">
+        <v>464</v>
+      </c>
+      <c r="F345" t="s">
+        <v>175</v>
+      </c>
+      <c r="G345" t="s">
+        <v>11</v>
+      </c>
+      <c r="H345" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="B346" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C346" t="n">
-        <v>3.765</v>
+        <v>3.588</v>
       </c>
       <c r="D346" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E346" t="s">
-        <v>245</v>
+        <v>466</v>
       </c>
       <c r="F346" t="s">
-        <v>471</v>
+        <v>11</v>
       </c>
       <c r="G346" t="s">
         <v>11</v>
@@ -6504,174 +6472,215 @@
     </row>
     <row r="347" spans="1:8">
       <c r="B347" t="s">
+        <v>467</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="D347" t="s">
+        <v>178</v>
+      </c>
+      <c r="E347" t="s">
+        <v>468</v>
+      </c>
+      <c r="F347" t="s">
+        <v>58</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
+      </c>
+      <c r="H347" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>469</v>
+      </c>
+      <c r="C348" t="n">
+        <v>4</v>
+      </c>
+      <c r="D348" t="s">
+        <v>10</v>
+      </c>
+      <c r="E348" t="s">
+        <v>11</v>
+      </c>
+      <c r="F348" t="s">
+        <v>11</v>
+      </c>
+      <c r="G348" t="s">
+        <v>11</v>
+      </c>
+      <c r="H348" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="B349" t="s">
+        <v>470</v>
+      </c>
+      <c r="C349" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D349" t="s">
+        <v>66</v>
+      </c>
+      <c r="E349" t="s">
+        <v>66</v>
+      </c>
+      <c r="F349" t="s">
+        <v>130</v>
+      </c>
+      <c r="G349" t="s">
+        <v>11</v>
+      </c>
+      <c r="H349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="B352" t="s">
         <v>472</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C352" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D352" t="s">
+        <v>473</v>
+      </c>
+      <c r="E352" t="s">
+        <v>245</v>
+      </c>
+      <c r="F352" t="s">
+        <v>474</v>
+      </c>
+      <c r="G352" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="B353" t="s">
+        <v>475</v>
+      </c>
+      <c r="C353" t="n">
         <v>3.654</v>
       </c>
-      <c r="D347" t="s">
-        <v>473</v>
-      </c>
-      <c r="E347" t="s">
+      <c r="D353" t="s">
+        <v>476</v>
+      </c>
+      <c r="E353" t="s">
         <v>267</v>
       </c>
-      <c r="F347" t="s">
-        <v>11</v>
-      </c>
-      <c r="G347" t="s">
-        <v>474</v>
-      </c>
-      <c r="H347" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="A349" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="B350" t="s">
-        <v>476</v>
-      </c>
-      <c r="C350" t="n">
+      <c r="F353" t="s">
+        <v>11</v>
+      </c>
+      <c r="G353" t="s">
+        <v>477</v>
+      </c>
+      <c r="H353" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="B356" t="s">
+        <v>479</v>
+      </c>
+      <c r="C356" t="n">
         <v>3.26</v>
       </c>
-      <c r="D350" t="s">
-        <v>477</v>
-      </c>
-      <c r="E350" t="s">
-        <v>478</v>
-      </c>
-      <c r="F350" t="s">
-        <v>479</v>
-      </c>
-      <c r="G350" t="s">
+      <c r="D356" t="s">
         <v>480</v>
       </c>
-      <c r="H350" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
-      <c r="B351" t="s">
+      <c r="E356" t="s">
         <v>481</v>
       </c>
-      <c r="C351" t="n">
+      <c r="F356" t="s">
+        <v>482</v>
+      </c>
+      <c r="G356" t="s">
+        <v>483</v>
+      </c>
+      <c r="H356" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="B357" t="s">
+        <v>484</v>
+      </c>
+      <c r="C357" t="n">
         <v>3.591</v>
       </c>
-      <c r="D351" t="s">
-        <v>482</v>
-      </c>
-      <c r="E351" t="s">
-        <v>483</v>
-      </c>
-      <c r="F351" t="s">
+      <c r="D357" t="s">
+        <v>485</v>
+      </c>
+      <c r="E357" t="s">
+        <v>486</v>
+      </c>
+      <c r="F357" t="s">
+        <v>487</v>
+      </c>
+      <c r="G357" t="s">
+        <v>488</v>
+      </c>
+      <c r="H357" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="B360" t="s">
         <v>484</v>
       </c>
-      <c r="G351" t="s">
-        <v>485</v>
-      </c>
-      <c r="H351" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="A353" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="B354" t="s">
-        <v>481</v>
-      </c>
-      <c r="C354" t="n">
+      <c r="C360" t="n">
         <v>3</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D360" t="s">
         <v>245</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E360" t="s">
         <v>185</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F360" t="s">
         <v>245</v>
       </c>
-      <c r="G354" t="s">
-        <v>11</v>
-      </c>
-      <c r="H354" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="B355" t="s">
-        <v>188</v>
-      </c>
-      <c r="C355" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D355" t="s">
-        <v>100</v>
-      </c>
-      <c r="E355" t="s">
-        <v>119</v>
-      </c>
-      <c r="F355" t="s">
-        <v>11</v>
-      </c>
-      <c r="G355" t="s">
-        <v>11</v>
-      </c>
-      <c r="H355" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
-      <c r="A357" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="B358" t="s">
-        <v>188</v>
-      </c>
-      <c r="C358" t="n">
-        <v>3.5295</v>
-      </c>
-      <c r="D358" t="s">
-        <v>166</v>
-      </c>
-      <c r="E358" t="s">
-        <v>167</v>
-      </c>
-      <c r="F358" t="s">
-        <v>11</v>
-      </c>
-      <c r="G358" t="s">
-        <v>11</v>
-      </c>
-      <c r="H358" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="A360" t="s">
-        <v>489</v>
+      <c r="G360" t="s">
+        <v>11</v>
+      </c>
+      <c r="H360" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="B361" t="s">
-        <v>490</v>
+        <v>188</v>
       </c>
       <c r="C361" t="n">
-        <v>3.542</v>
+        <v>3.333</v>
       </c>
       <c r="D361" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E361" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="F361" t="s">
         <v>11</v>
@@ -6690,19 +6699,19 @@
     </row>
     <row r="364" spans="1:8">
       <c r="B364" t="s">
-        <v>469</v>
+        <v>188</v>
       </c>
       <c r="C364" t="n">
-        <v>3.077</v>
+        <v>3.5295</v>
       </c>
       <c r="D364" t="s">
-        <v>492</v>
+        <v>166</v>
       </c>
       <c r="E364" t="s">
-        <v>493</v>
+        <v>167</v>
       </c>
       <c r="F364" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="G364" t="s">
         <v>11</v>
@@ -6713,24 +6722,24 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="B367" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C367" t="n">
-        <v>2.758</v>
+        <v>3.542</v>
       </c>
       <c r="D367" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="E367" t="s">
-        <v>496</v>
+        <v>66</v>
       </c>
       <c r="F367" t="s">
-        <v>497</v>
+        <v>11</v>
       </c>
       <c r="G367" t="s">
         <v>11</v>
@@ -6741,24 +6750,24 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="370" spans="1:8">
       <c r="B370" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="C370" t="n">
-        <v>3.454</v>
+        <v>3.077</v>
       </c>
       <c r="D370" t="s">
-        <v>167</v>
+        <v>495</v>
       </c>
       <c r="E370" t="s">
-        <v>166</v>
+        <v>496</v>
       </c>
       <c r="F370" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="G370" t="s">
         <v>11</v>
@@ -6769,24 +6778,24 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="B373" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C373" t="n">
-        <v>3.546</v>
+        <v>2.758</v>
       </c>
       <c r="D373" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="E373" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="F373" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G373" t="s">
         <v>11</v>
@@ -6797,21 +6806,21 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="B376" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C376" t="n">
-        <v>4</v>
+        <v>3.454</v>
       </c>
       <c r="D376" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="E376" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="F376" t="s">
         <v>11</v>
@@ -6825,24 +6834,24 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="B379" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="C379" t="n">
-        <v>3.533</v>
+        <v>3.546</v>
       </c>
       <c r="D379" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="E379" t="s">
-        <v>172</v>
+        <v>452</v>
       </c>
       <c r="F379" t="s">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="G379" t="s">
         <v>11</v>
@@ -6853,21 +6862,21 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="B382" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="C382" t="n">
-        <v>3.312</v>
+        <v>4</v>
       </c>
       <c r="D382" t="s">
-        <v>506</v>
+        <v>10</v>
       </c>
       <c r="E382" t="s">
-        <v>507</v>
+        <v>11</v>
       </c>
       <c r="F382" t="s">
         <v>11</v>
@@ -6881,21 +6890,21 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="B385" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C385" t="n">
-        <v>3.929</v>
+        <v>3.533</v>
       </c>
       <c r="D385" t="s">
-        <v>510</v>
+        <v>171</v>
       </c>
       <c r="E385" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="F385" t="s">
         <v>11</v>
@@ -6909,21 +6918,21 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="388" spans="1:8">
       <c r="B388" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="C388" t="n">
-        <v>3.6</v>
+        <v>3.312</v>
       </c>
       <c r="D388" t="s">
-        <v>23</v>
+        <v>509</v>
       </c>
       <c r="E388" t="s">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="F388" t="s">
         <v>11</v>
@@ -6937,21 +6946,21 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="B391" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C391" t="n">
-        <v>3.964</v>
+        <v>3.929</v>
       </c>
       <c r="D391" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="E391" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="F391" t="s">
         <v>11</v>
@@ -6973,13 +6982,13 @@
         <v>515</v>
       </c>
       <c r="C394" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D394" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E394" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F394" t="s">
         <v>11</v>
@@ -6998,19 +7007,19 @@
     </row>
     <row r="397" spans="1:8">
       <c r="B397" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C397" t="n">
-        <v>3.571</v>
+        <v>3.964</v>
       </c>
       <c r="D397" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="E397" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F397" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G397" t="s">
         <v>11</v>
@@ -7021,12 +7030,12 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="B400" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C400" t="n">
         <v>4</v>
@@ -7057,16 +7066,16 @@
         <v>520</v>
       </c>
       <c r="C403" t="n">
-        <v>3.96</v>
+        <v>3.571</v>
       </c>
       <c r="D403" t="s">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="E403" t="s">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="F403" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G403" t="s">
         <v>11</v>
@@ -7082,7 +7091,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="B406" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C406" t="n">
         <v>4</v>
@@ -7113,13 +7122,13 @@
         <v>523</v>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>3.96</v>
       </c>
       <c r="D409" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="E409" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="F409" t="s">
         <v>11</v>
@@ -7138,16 +7147,16 @@
     </row>
     <row r="412" spans="1:8">
       <c r="B412" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C412" t="n">
-        <v>3.767</v>
+        <v>4</v>
       </c>
       <c r="D412" t="s">
-        <v>526</v>
+        <v>10</v>
       </c>
       <c r="E412" t="s">
-        <v>527</v>
+        <v>11</v>
       </c>
       <c r="F412" t="s">
         <v>11</v>
@@ -7161,21 +7170,21 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="B415" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C415" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D415" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="E415" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F415" t="s">
         <v>11</v>
@@ -7189,21 +7198,21 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="B418" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C418" t="n">
-        <v>3.8585</v>
+        <v>3.767</v>
       </c>
       <c r="D418" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E418" t="s">
-        <v>176</v>
+        <v>530</v>
       </c>
       <c r="F418" t="s">
         <v>11</v>
@@ -7217,21 +7226,21 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="B421" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C421" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D421" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="E421" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F421" t="s">
         <v>11</v>
@@ -7245,21 +7254,21 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="B424" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C424" t="n">
-        <v>3.875</v>
+        <v>3.8585</v>
       </c>
       <c r="D424" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="E424" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="F424" t="s">
         <v>11</v>
@@ -7273,21 +7282,21 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="427" spans="1:8">
       <c r="B427" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C427" t="n">
-        <v>3.714</v>
+        <v>4</v>
       </c>
       <c r="D427" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E427" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F427" t="s">
         <v>11</v>
@@ -7306,16 +7315,16 @@
     </row>
     <row r="430" spans="1:8">
       <c r="B430" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C430" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="D430" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E430" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F430" t="s">
         <v>11</v>
@@ -7329,21 +7338,21 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="433" spans="1:8">
       <c r="B433" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="C433" t="n">
-        <v>3.833</v>
+        <v>3.714</v>
       </c>
       <c r="D433" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="E433" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="F433" t="s">
         <v>11</v>
@@ -7365,13 +7374,13 @@
         <v>541</v>
       </c>
       <c r="C436" t="n">
-        <v>3.741</v>
+        <v>4</v>
       </c>
       <c r="D436" t="s">
-        <v>542</v>
+        <v>10</v>
       </c>
       <c r="E436" t="s">
-        <v>543</v>
+        <v>11</v>
       </c>
       <c r="F436" t="s">
         <v>11</v>
@@ -7385,21 +7394,21 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="439" spans="1:8">
       <c r="B439" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="C439" t="n">
-        <v>3.857</v>
+        <v>3.833</v>
       </c>
       <c r="D439" t="s">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="E439" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F439" t="s">
         <v>11</v>
@@ -7413,21 +7422,21 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="442" spans="1:8">
       <c r="B442" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C442" t="n">
-        <v>3.619</v>
+        <v>3.741</v>
       </c>
       <c r="D442" t="s">
-        <v>229</v>
+        <v>545</v>
       </c>
       <c r="E442" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F442" t="s">
         <v>11</v>
@@ -7441,21 +7450,21 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="B445" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C445" t="n">
-        <v>4</v>
+        <v>3.857</v>
       </c>
       <c r="D445" t="s">
-        <v>10</v>
+        <v>549</v>
       </c>
       <c r="E445" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F445" t="s">
         <v>11</v>
@@ -7469,21 +7478,21 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="B448" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C448" t="n">
-        <v>3.857</v>
+        <v>3.619</v>
       </c>
       <c r="D448" t="s">
-        <v>546</v>
+        <v>229</v>
       </c>
       <c r="E448" t="s">
-        <v>102</v>
+        <v>551</v>
       </c>
       <c r="F448" t="s">
         <v>11</v>
@@ -7497,304 +7506,304 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="B451" t="s">
-        <v>280</v>
+        <v>553</v>
       </c>
       <c r="C451" t="n">
-        <v>3.478</v>
+        <v>4</v>
       </c>
       <c r="D451" t="s">
+        <v>10</v>
+      </c>
+      <c r="E451" t="s">
+        <v>11</v>
+      </c>
+      <c r="F451" t="s">
+        <v>11</v>
+      </c>
+      <c r="G451" t="s">
+        <v>11</v>
+      </c>
+      <c r="H451" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" t="s">
         <v>554</v>
       </c>
-      <c r="E451" t="s">
+    </row>
+    <row r="454" spans="1:8">
+      <c r="B454" t="s">
         <v>555</v>
       </c>
-      <c r="F451" t="s">
+      <c r="C454" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D454" t="s">
+        <v>549</v>
+      </c>
+      <c r="E454" t="s">
+        <v>102</v>
+      </c>
+      <c r="F454" t="s">
+        <v>11</v>
+      </c>
+      <c r="G454" t="s">
+        <v>11</v>
+      </c>
+      <c r="H454" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" t="s">
         <v>556</v>
-      </c>
-      <c r="G451" t="s">
-        <v>11</v>
-      </c>
-      <c r="H451" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8">
-      <c r="B452" t="s">
-        <v>558</v>
-      </c>
-      <c r="C452" t="n">
-        <v>3.548</v>
-      </c>
-      <c r="D452" t="s">
-        <v>13</v>
-      </c>
-      <c r="E452" t="s">
-        <v>14</v>
-      </c>
-      <c r="F452" t="s">
-        <v>232</v>
-      </c>
-      <c r="G452" t="s">
-        <v>559</v>
-      </c>
-      <c r="H452" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="B453" t="s">
-        <v>560</v>
-      </c>
-      <c r="C453" t="n">
-        <v>3.852</v>
-      </c>
-      <c r="D453" t="s">
-        <v>561</v>
-      </c>
-      <c r="E453" t="s">
-        <v>562</v>
-      </c>
-      <c r="F453" t="s">
-        <v>11</v>
-      </c>
-      <c r="G453" t="s">
-        <v>11</v>
-      </c>
-      <c r="H453" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
-      <c r="A455" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="B456" t="s">
-        <v>550</v>
-      </c>
-      <c r="C456" t="n">
-        <v>3.608</v>
-      </c>
-      <c r="D456" t="s">
-        <v>119</v>
-      </c>
-      <c r="E456" t="s">
-        <v>564</v>
-      </c>
-      <c r="F456" t="s">
-        <v>565</v>
-      </c>
-      <c r="G456" t="s">
-        <v>565</v>
-      </c>
-      <c r="H456" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="457" spans="1:8">
       <c r="B457" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C457" t="n">
-        <v>2.846</v>
+        <v>3.478</v>
       </c>
       <c r="D457" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="E457" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F457" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G457" t="s">
-        <v>474</v>
+        <v>11</v>
       </c>
       <c r="H457" t="s">
-        <v>11</v>
+        <v>560</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="B458" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="C458" t="n">
-        <v>3.833</v>
+        <v>3.548</v>
       </c>
       <c r="D458" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E458" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="F458" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="G458" t="s">
-        <v>11</v>
+        <v>562</v>
       </c>
       <c r="H458" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
-      <c r="A460" t="s">
+    <row r="459" spans="1:8">
+      <c r="B459" t="s">
+        <v>563</v>
+      </c>
+      <c r="C459" t="n">
+        <v>3.852</v>
+      </c>
+      <c r="D459" t="s">
+        <v>564</v>
+      </c>
+      <c r="E459" t="s">
+        <v>565</v>
+      </c>
+      <c r="F459" t="s">
+        <v>11</v>
+      </c>
+      <c r="G459" t="s">
+        <v>11</v>
+      </c>
+      <c r="H459" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="B462" t="s">
+        <v>553</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3.608</v>
+      </c>
+      <c r="D462" t="s">
+        <v>119</v>
+      </c>
+      <c r="E462" t="s">
+        <v>567</v>
+      </c>
+      <c r="F462" t="s">
+        <v>568</v>
+      </c>
+      <c r="G462" t="s">
+        <v>568</v>
+      </c>
+      <c r="H462" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="B463" t="s">
+        <v>274</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2.846</v>
+      </c>
+      <c r="D463" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="461" spans="1:8">
-      <c r="B461" t="s">
+      <c r="E463" t="s">
         <v>570</v>
       </c>
-      <c r="C461" t="n">
-        <v>2.889</v>
-      </c>
-      <c r="D461" t="s">
+      <c r="F463" t="s">
         <v>571</v>
       </c>
-      <c r="E461" t="s">
-        <v>100</v>
-      </c>
-      <c r="F461" t="s">
-        <v>120</v>
-      </c>
-      <c r="G461" t="s">
-        <v>11</v>
-      </c>
-      <c r="H461" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8">
-      <c r="A463" t="s">
-        <v>572</v>
+      <c r="G463" t="s">
+        <v>477</v>
+      </c>
+      <c r="H463" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="B464" t="s">
+        <v>541</v>
+      </c>
+      <c r="C464" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D464" t="s">
+        <v>18</v>
+      </c>
+      <c r="E464" t="s">
+        <v>160</v>
+      </c>
+      <c r="F464" t="s">
+        <v>292</v>
+      </c>
+      <c r="G464" t="s">
+        <v>11</v>
+      </c>
+      <c r="H464" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="A466" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
+      <c r="B467" t="s">
         <v>573</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C467" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="D467" t="s">
+        <v>574</v>
+      </c>
+      <c r="E467" t="s">
+        <v>100</v>
+      </c>
+      <c r="F467" t="s">
+        <v>120</v>
+      </c>
+      <c r="G467" t="s">
+        <v>11</v>
+      </c>
+      <c r="H467" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="B470" t="s">
+        <v>576</v>
+      </c>
+      <c r="C470" t="n">
         <v>3.4885</v>
       </c>
-      <c r="D464" t="s">
-        <v>574</v>
-      </c>
-      <c r="E464" t="s">
+      <c r="D470" t="s">
+        <v>577</v>
+      </c>
+      <c r="E470" t="s">
         <v>194</v>
       </c>
-      <c r="F464" t="s">
+      <c r="F470" t="s">
         <v>194</v>
       </c>
-      <c r="G464" t="s">
-        <v>575</v>
-      </c>
-      <c r="H464" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="B465" t="s">
-        <v>517</v>
-      </c>
-      <c r="C465" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D465" t="s">
-        <v>106</v>
-      </c>
-      <c r="E465" t="s">
-        <v>146</v>
-      </c>
-      <c r="F465" t="s">
-        <v>19</v>
-      </c>
-      <c r="G465" t="s">
-        <v>11</v>
-      </c>
-      <c r="H465" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="A467" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="B468" t="s">
-        <v>577</v>
-      </c>
-      <c r="C468" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D468" t="s">
+      <c r="G470" t="s">
         <v>578</v>
       </c>
-      <c r="E468" t="s">
-        <v>465</v>
-      </c>
-      <c r="F468" t="s">
-        <v>11</v>
-      </c>
-      <c r="G468" t="s">
-        <v>11</v>
-      </c>
-      <c r="H468" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
-      <c r="A470" t="s">
-        <v>579</v>
+      <c r="H470" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="B471" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C471" t="n">
-        <v>2.861</v>
+        <v>3.375</v>
       </c>
       <c r="D471" t="s">
-        <v>548</v>
+        <v>106</v>
       </c>
       <c r="E471" t="s">
-        <v>548</v>
+        <v>146</v>
       </c>
       <c r="F471" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="G471" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="H471" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="474" spans="1:8">
       <c r="B474" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="C474" t="n">
-        <v>3.821</v>
+        <v>3.867</v>
       </c>
       <c r="D474" t="s">
         <v>581</v>
       </c>
       <c r="E474" t="s">
-        <v>582</v>
+        <v>468</v>
       </c>
       <c r="F474" t="s">
         <v>11</v>
@@ -7808,52 +7817,52 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="B477" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C477" t="n">
-        <v>3.345</v>
+        <v>2.861</v>
       </c>
       <c r="D477" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="E477" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="F477" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G477" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="H477" t="s">
-        <v>586</v>
+        <v>102</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="B480" t="s">
-        <v>274</v>
+        <v>523</v>
       </c>
       <c r="C480" t="n">
-        <v>3.257</v>
+        <v>3.821</v>
       </c>
       <c r="D480" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E480" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F480" t="s">
-        <v>590</v>
+        <v>11</v>
       </c>
       <c r="G480" t="s">
         <v>11</v>
@@ -7864,134 +7873,134 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="483" spans="1:8">
       <c r="B483" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="C483" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="D483" t="s">
+        <v>587</v>
+      </c>
+      <c r="E483" t="s">
+        <v>588</v>
+      </c>
+      <c r="F483" t="s">
+        <v>262</v>
+      </c>
+      <c r="G483" t="s">
+        <v>11</v>
+      </c>
+      <c r="H483" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="B486" t="s">
+        <v>274</v>
+      </c>
+      <c r="C486" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="D486" t="s">
+        <v>591</v>
+      </c>
+      <c r="E486" t="s">
+        <v>592</v>
+      </c>
+      <c r="F486" t="s">
+        <v>593</v>
+      </c>
+      <c r="G486" t="s">
+        <v>11</v>
+      </c>
+      <c r="H486" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="B489" t="s">
+        <v>563</v>
+      </c>
+      <c r="C489" t="n">
         <v>3.533</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D489" t="s">
         <v>189</v>
       </c>
-      <c r="E483" t="s">
-        <v>465</v>
-      </c>
-      <c r="F483" t="s">
+      <c r="E489" t="s">
+        <v>468</v>
+      </c>
+      <c r="F489" t="s">
         <v>58</v>
       </c>
-      <c r="G483" t="s">
+      <c r="G489" t="s">
         <v>58</v>
       </c>
-      <c r="H483" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8">
-      <c r="B484" t="s">
-        <v>592</v>
-      </c>
-      <c r="C484" t="n">
-        <v>3.1825</v>
-      </c>
-      <c r="D484" t="s">
-        <v>593</v>
-      </c>
-      <c r="E484" t="s">
-        <v>594</v>
-      </c>
-      <c r="F484" t="s">
-        <v>15</v>
-      </c>
-      <c r="G484" t="s">
-        <v>595</v>
-      </c>
-      <c r="H484" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
-      <c r="A486" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="B487" t="s">
-        <v>598</v>
-      </c>
-      <c r="C487" t="n">
-        <v>3.922</v>
-      </c>
-      <c r="D487" t="s">
-        <v>114</v>
-      </c>
-      <c r="E487" t="s">
-        <v>599</v>
-      </c>
-      <c r="F487" t="s">
-        <v>600</v>
-      </c>
-      <c r="G487" t="s">
-        <v>11</v>
-      </c>
-      <c r="H487" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="A489" t="s">
-        <v>601</v>
+      <c r="H489" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="490" spans="1:8">
       <c r="B490" t="s">
-        <v>558</v>
+        <v>595</v>
       </c>
       <c r="C490" t="n">
-        <v>3.8</v>
+        <v>3.1825</v>
       </c>
       <c r="D490" t="s">
-        <v>178</v>
+        <v>596</v>
       </c>
       <c r="E490" t="s">
-        <v>22</v>
+        <v>597</v>
       </c>
       <c r="F490" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G490" t="s">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="H490" t="s">
-        <v>11</v>
+        <v>599</v>
       </c>
     </row>
     <row r="492" spans="1:8">
       <c r="A492" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="493" spans="1:8">
       <c r="B493" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="C493" t="n">
-        <v>3</v>
+        <v>3.922</v>
       </c>
       <c r="D493" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E493" t="s">
-        <v>127</v>
+        <v>602</v>
       </c>
       <c r="F493" t="s">
-        <v>22</v>
+        <v>603</v>
       </c>
       <c r="G493" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="H493" t="s">
         <v>11</v>
@@ -7999,105 +8008,105 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="496" spans="1:8">
       <c r="B496" t="s">
-        <v>604</v>
+        <v>561</v>
       </c>
       <c r="C496" t="n">
-        <v>3.0395</v>
+        <v>3.8</v>
       </c>
       <c r="D496" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="E496" t="s">
-        <v>605</v>
+        <v>22</v>
       </c>
       <c r="F496" t="s">
-        <v>606</v>
+        <v>11</v>
       </c>
       <c r="G496" t="s">
-        <v>607</v>
+        <v>11</v>
       </c>
       <c r="H496" t="s">
-        <v>608</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="499" spans="1:8">
       <c r="B499" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C499" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D499" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E499" t="s">
         <v>127</v>
       </c>
       <c r="F499" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G499" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="H499" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="B502" t="s">
+        <v>607</v>
+      </c>
+      <c r="C502" t="n">
+        <v>3.0395</v>
+      </c>
+      <c r="D502" t="s">
+        <v>106</v>
+      </c>
+      <c r="E502" t="s">
+        <v>608</v>
+      </c>
+      <c r="F502" t="s">
+        <v>609</v>
+      </c>
+      <c r="G502" t="s">
+        <v>610</v>
+      </c>
+      <c r="H502" t="s">
         <v>611</v>
-      </c>
-      <c r="C502" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D502" t="s">
-        <v>567</v>
-      </c>
-      <c r="E502" t="s">
-        <v>612</v>
-      </c>
-      <c r="F502" t="s">
-        <v>11</v>
-      </c>
-      <c r="G502" t="s">
-        <v>474</v>
-      </c>
-      <c r="H502" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="504" spans="1:8">
       <c r="A504" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="505" spans="1:8">
       <c r="B505" t="s">
-        <v>614</v>
+        <v>541</v>
       </c>
       <c r="C505" t="n">
-        <v>3.778</v>
+        <v>3.3</v>
       </c>
       <c r="D505" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="E505" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F505" t="s">
         <v>11</v>
@@ -8106,32 +8115,32 @@
         <v>11</v>
       </c>
       <c r="H505" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="508" spans="1:8">
       <c r="B508" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C508" t="n">
-        <v>3.833</v>
+        <v>3.5</v>
       </c>
       <c r="D508" t="s">
-        <v>150</v>
+        <v>570</v>
       </c>
       <c r="E508" t="s">
-        <v>120</v>
+        <v>615</v>
       </c>
       <c r="F508" t="s">
         <v>11</v>
       </c>
       <c r="G508" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="H508" t="s">
         <v>11</v>
@@ -8139,21 +8148,21 @@
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="511" spans="1:8">
       <c r="B511" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="C511" t="n">
-        <v>4</v>
+        <v>3.778</v>
       </c>
       <c r="D511" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="E511" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F511" t="s">
         <v>11</v>
@@ -8175,398 +8184,398 @@
         <v>619</v>
       </c>
       <c r="C514" t="n">
-        <v>3.188</v>
+        <v>3.833</v>
       </c>
       <c r="D514" t="s">
+        <v>150</v>
+      </c>
+      <c r="E514" t="s">
+        <v>120</v>
+      </c>
+      <c r="F514" t="s">
+        <v>11</v>
+      </c>
+      <c r="G514" t="s">
+        <v>11</v>
+      </c>
+      <c r="H514" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="A516" t="s">
         <v>620</v>
       </c>
-      <c r="E514" t="s">
+    </row>
+    <row r="517" spans="1:8">
+      <c r="B517" t="s">
+        <v>607</v>
+      </c>
+      <c r="C517" t="n">
+        <v>4</v>
+      </c>
+      <c r="D517" t="s">
+        <v>10</v>
+      </c>
+      <c r="E517" t="s">
+        <v>11</v>
+      </c>
+      <c r="F517" t="s">
+        <v>11</v>
+      </c>
+      <c r="G517" t="s">
+        <v>11</v>
+      </c>
+      <c r="H517" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="A519" t="s">
         <v>621</v>
-      </c>
-      <c r="F514" t="s">
-        <v>11</v>
-      </c>
-      <c r="G514" t="s">
-        <v>11</v>
-      </c>
-      <c r="H514" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8">
-      <c r="B515" t="s">
-        <v>622</v>
-      </c>
-      <c r="C515" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="D515" t="s">
-        <v>623</v>
-      </c>
-      <c r="E515" t="s">
-        <v>624</v>
-      </c>
-      <c r="F515" t="s">
-        <v>625</v>
-      </c>
-      <c r="G515" t="s">
-        <v>11</v>
-      </c>
-      <c r="H515" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
-      <c r="B516" t="s">
-        <v>626</v>
-      </c>
-      <c r="C516" t="n">
-        <v>3.3107</v>
-      </c>
-      <c r="D516" t="s">
-        <v>627</v>
-      </c>
-      <c r="E516" t="s">
-        <v>628</v>
-      </c>
-      <c r="F516" t="s">
-        <v>474</v>
-      </c>
-      <c r="G516" t="s">
-        <v>11</v>
-      </c>
-      <c r="H516" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8">
-      <c r="B519" t="s">
-        <v>630</v>
-      </c>
-      <c r="C519" t="n">
-        <v>2.613</v>
-      </c>
-      <c r="D519" t="s">
-        <v>631</v>
-      </c>
-      <c r="E519" t="s">
-        <v>632</v>
-      </c>
-      <c r="F519" t="s">
-        <v>201</v>
-      </c>
-      <c r="G519" t="s">
-        <v>633</v>
-      </c>
-      <c r="H519" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="520" spans="1:8">
       <c r="B520" t="s">
+        <v>622</v>
+      </c>
+      <c r="C520" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="D520" t="s">
+        <v>623</v>
+      </c>
+      <c r="E520" t="s">
+        <v>624</v>
+      </c>
+      <c r="F520" t="s">
+        <v>11</v>
+      </c>
+      <c r="G520" t="s">
+        <v>11</v>
+      </c>
+      <c r="H520" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="B521" t="s">
+        <v>625</v>
+      </c>
+      <c r="C521" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="D521" t="s">
+        <v>626</v>
+      </c>
+      <c r="E521" t="s">
+        <v>627</v>
+      </c>
+      <c r="F521" t="s">
+        <v>628</v>
+      </c>
+      <c r="G521" t="s">
+        <v>11</v>
+      </c>
+      <c r="H521" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="B522" t="s">
+        <v>629</v>
+      </c>
+      <c r="C522" t="n">
+        <v>3.3107</v>
+      </c>
+      <c r="D522" t="s">
+        <v>630</v>
+      </c>
+      <c r="E522" t="s">
+        <v>631</v>
+      </c>
+      <c r="F522" t="s">
+        <v>477</v>
+      </c>
+      <c r="G522" t="s">
+        <v>11</v>
+      </c>
+      <c r="H522" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="A524" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="B525" t="s">
+        <v>633</v>
+      </c>
+      <c r="C525" t="n">
+        <v>2.613</v>
+      </c>
+      <c r="D525" t="s">
+        <v>634</v>
+      </c>
+      <c r="E525" t="s">
         <v>635</v>
       </c>
-      <c r="C520" t="n">
-        <v>3.326</v>
-      </c>
-      <c r="D520" t="s">
+      <c r="F525" t="s">
+        <v>201</v>
+      </c>
+      <c r="G525" t="s">
         <v>636</v>
       </c>
-      <c r="E520" t="s">
+      <c r="H525" t="s">
         <v>637</v>
-      </c>
-      <c r="F520" t="s">
-        <v>638</v>
-      </c>
-      <c r="G520" t="s">
-        <v>639</v>
-      </c>
-      <c r="H520" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
-      <c r="A522" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
-      <c r="B523" t="s">
-        <v>630</v>
-      </c>
-      <c r="C523" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D523" t="s">
-        <v>100</v>
-      </c>
-      <c r="E523" t="s">
-        <v>192</v>
-      </c>
-      <c r="F523" t="s">
-        <v>641</v>
-      </c>
-      <c r="G523" t="s">
-        <v>11</v>
-      </c>
-      <c r="H523" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="A525" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="526" spans="1:8">
       <c r="B526" t="s">
+        <v>638</v>
+      </c>
+      <c r="C526" t="n">
+        <v>3.326</v>
+      </c>
+      <c r="D526" t="s">
+        <v>639</v>
+      </c>
+      <c r="E526" t="s">
+        <v>640</v>
+      </c>
+      <c r="F526" t="s">
+        <v>641</v>
+      </c>
+      <c r="G526" t="s">
+        <v>642</v>
+      </c>
+      <c r="H526" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" t="s">
         <v>643</v>
       </c>
-      <c r="C526" t="n">
+    </row>
+    <row r="529" spans="1:8">
+      <c r="B529" t="s">
+        <v>633</v>
+      </c>
+      <c r="C529" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D529" t="s">
+        <v>100</v>
+      </c>
+      <c r="E529" t="s">
+        <v>192</v>
+      </c>
+      <c r="F529" t="s">
+        <v>644</v>
+      </c>
+      <c r="G529" t="s">
+        <v>11</v>
+      </c>
+      <c r="H529" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="B532" t="s">
+        <v>646</v>
+      </c>
+      <c r="C532" t="n">
         <v>3</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D532" t="s">
         <v>146</v>
       </c>
-      <c r="E526" t="s">
+      <c r="E532" t="s">
         <v>141</v>
       </c>
-      <c r="F526" t="s">
+      <c r="F532" t="s">
         <v>146</v>
       </c>
-      <c r="G526" t="s">
-        <v>11</v>
-      </c>
-      <c r="H526" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="B527" t="s">
-        <v>644</v>
-      </c>
-      <c r="C527" t="n">
+      <c r="G532" t="s">
+        <v>11</v>
+      </c>
+      <c r="H532" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="B533" t="s">
+        <v>647</v>
+      </c>
+      <c r="C533" t="n">
         <v>3.786</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D533" t="s">
         <v>133</v>
       </c>
-      <c r="E527" t="s">
+      <c r="E533" t="s">
         <v>134</v>
       </c>
-      <c r="F527" t="s">
-        <v>11</v>
-      </c>
-      <c r="G527" t="s">
-        <v>11</v>
-      </c>
-      <c r="H527" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
-      <c r="B528" t="s">
-        <v>645</v>
-      </c>
-      <c r="C528" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="D528" t="s">
-        <v>646</v>
-      </c>
-      <c r="E528" t="s">
-        <v>22</v>
-      </c>
-      <c r="F528" t="s">
-        <v>269</v>
-      </c>
-      <c r="G528" t="s">
-        <v>11</v>
-      </c>
-      <c r="H528" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8">
-      <c r="A530" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
-      <c r="B531" t="s">
-        <v>648</v>
-      </c>
-      <c r="C531" t="n">
-        <v>3.224</v>
-      </c>
-      <c r="D531" t="s">
-        <v>649</v>
-      </c>
-      <c r="E531" t="s">
-        <v>650</v>
-      </c>
-      <c r="F531" t="s">
-        <v>651</v>
-      </c>
-      <c r="G531" t="s">
-        <v>11</v>
-      </c>
-      <c r="H531" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
-      <c r="A533" t="s">
-        <v>652</v>
+      <c r="F533" t="s">
+        <v>11</v>
+      </c>
+      <c r="G533" t="s">
+        <v>11</v>
+      </c>
+      <c r="H533" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="534" spans="1:8">
       <c r="B534" t="s">
+        <v>648</v>
+      </c>
+      <c r="C534" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="D534" t="s">
+        <v>649</v>
+      </c>
+      <c r="E534" t="s">
+        <v>22</v>
+      </c>
+      <c r="F534" t="s">
+        <v>269</v>
+      </c>
+      <c r="G534" t="s">
+        <v>11</v>
+      </c>
+      <c r="H534" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="B537" t="s">
+        <v>651</v>
+      </c>
+      <c r="C537" t="n">
+        <v>3.224</v>
+      </c>
+      <c r="D537" t="s">
+        <v>652</v>
+      </c>
+      <c r="E537" t="s">
+        <v>653</v>
+      </c>
+      <c r="F537" t="s">
+        <v>654</v>
+      </c>
+      <c r="G537" t="s">
+        <v>11</v>
+      </c>
+      <c r="H537" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="B540" t="s">
         <v>177</v>
       </c>
-      <c r="C534" t="n">
+      <c r="C540" t="n">
         <v>3.586</v>
       </c>
-      <c r="D534" t="s">
-        <v>653</v>
-      </c>
-      <c r="E534" t="s">
-        <v>654</v>
-      </c>
-      <c r="F534" t="s">
+      <c r="D540" t="s">
+        <v>656</v>
+      </c>
+      <c r="E540" t="s">
+        <v>657</v>
+      </c>
+      <c r="F540" t="s">
         <v>262</v>
       </c>
-      <c r="G534" t="s">
-        <v>586</v>
-      </c>
-      <c r="H534" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="B535" t="s">
-        <v>655</v>
-      </c>
-      <c r="C535" t="n">
+      <c r="G540" t="s">
+        <v>589</v>
+      </c>
+      <c r="H540" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="B541" t="s">
+        <v>658</v>
+      </c>
+      <c r="C541" t="n">
         <v>3.368</v>
       </c>
-      <c r="D535" t="s">
-        <v>656</v>
-      </c>
-      <c r="E535" t="s">
-        <v>657</v>
-      </c>
-      <c r="F535" t="s">
-        <v>658</v>
-      </c>
-      <c r="G535" t="s">
-        <v>658</v>
-      </c>
-      <c r="H535" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="A537" t="s">
+      <c r="D541" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="B538" t="s">
+      <c r="E541" t="s">
         <v>660</v>
       </c>
-      <c r="C538" t="n">
+      <c r="F541" t="s">
+        <v>661</v>
+      </c>
+      <c r="G541" t="s">
+        <v>661</v>
+      </c>
+      <c r="H541" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="B544" t="s">
+        <v>663</v>
+      </c>
+      <c r="C544" t="n">
         <v>3.286</v>
       </c>
-      <c r="D538" t="s">
+      <c r="D544" t="s">
         <v>14</v>
       </c>
-      <c r="E538" t="s">
+      <c r="E544" t="s">
         <v>55</v>
       </c>
-      <c r="F538" t="s">
-        <v>11</v>
-      </c>
-      <c r="G538" t="s">
-        <v>11</v>
-      </c>
-      <c r="H538" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="B539" t="s">
-        <v>661</v>
-      </c>
-      <c r="C539" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D539" t="s">
-        <v>178</v>
-      </c>
-      <c r="E539" t="s">
-        <v>22</v>
-      </c>
-      <c r="F539" t="s">
-        <v>11</v>
-      </c>
-      <c r="G539" t="s">
-        <v>11</v>
-      </c>
-      <c r="H539" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="A541" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="B542" t="s">
-        <v>630</v>
-      </c>
-      <c r="C542" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="D542" t="s">
-        <v>120</v>
-      </c>
-      <c r="E542" t="s">
-        <v>150</v>
-      </c>
-      <c r="F542" t="s">
-        <v>11</v>
-      </c>
-      <c r="G542" t="s">
-        <v>11</v>
-      </c>
-      <c r="H542" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
-      <c r="A544" t="s">
-        <v>663</v>
+      <c r="F544" t="s">
+        <v>11</v>
+      </c>
+      <c r="G544" t="s">
+        <v>11</v>
+      </c>
+      <c r="H544" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="545" spans="1:8">
       <c r="B545" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="C545" t="n">
-        <v>3.136</v>
+        <v>3.8</v>
       </c>
       <c r="D545" t="s">
-        <v>398</v>
+        <v>178</v>
       </c>
       <c r="E545" t="s">
-        <v>664</v>
+        <v>22</v>
       </c>
       <c r="F545" t="s">
         <v>11</v>
@@ -8585,19 +8594,19 @@
     </row>
     <row r="548" spans="1:8">
       <c r="B548" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="C548" t="n">
-        <v>3.25</v>
+        <v>3.167</v>
       </c>
       <c r="D548" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E548" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F548" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G548" t="s">
         <v>11</v>
@@ -8608,24 +8617,24 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="551" spans="1:8">
       <c r="B551" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="C551" t="n">
-        <v>3.25</v>
+        <v>3.136</v>
       </c>
       <c r="D551" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="E551" t="s">
-        <v>106</v>
+        <v>667</v>
       </c>
       <c r="F551" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G551" t="s">
         <v>11</v>
@@ -8644,16 +8653,16 @@
         <v>669</v>
       </c>
       <c r="C554" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="D554" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E554" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="F554" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G554" t="s">
         <v>11</v>
@@ -8669,19 +8678,19 @@
     </row>
     <row r="557" spans="1:8">
       <c r="B557" t="s">
-        <v>215</v>
+        <v>663</v>
       </c>
       <c r="C557" t="n">
-        <v>3.482</v>
+        <v>3.25</v>
       </c>
       <c r="D557" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E557" t="s">
-        <v>671</v>
+        <v>106</v>
       </c>
       <c r="F557" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="G557" t="s">
         <v>11</v>
@@ -8692,24 +8701,24 @@
     </row>
     <row r="559" spans="1:8">
       <c r="A559" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="560" spans="1:8">
       <c r="B560" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C560" t="n">
-        <v>3.571</v>
+        <v>3.75</v>
       </c>
       <c r="D560" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="E560" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F560" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="G560" t="s">
         <v>11</v>
@@ -8720,24 +8729,24 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="563" spans="1:8">
       <c r="B563" t="s">
-        <v>660</v>
+        <v>215</v>
       </c>
       <c r="C563" t="n">
-        <v>4</v>
+        <v>3.482</v>
       </c>
       <c r="D563" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E563" t="s">
-        <v>11</v>
+        <v>674</v>
       </c>
       <c r="F563" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="G563" t="s">
         <v>11</v>
@@ -8753,19 +8762,19 @@
     </row>
     <row r="566" spans="1:8">
       <c r="B566" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C566" t="n">
-        <v>3.722</v>
+        <v>3.571</v>
       </c>
       <c r="D566" t="s">
-        <v>676</v>
+        <v>55</v>
       </c>
       <c r="E566" t="s">
-        <v>677</v>
+        <v>102</v>
       </c>
       <c r="F566" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G566" t="s">
         <v>11</v>
@@ -8776,21 +8785,21 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="569" spans="1:8">
       <c r="B569" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C569" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D569" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E569" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F569" t="s">
         <v>11</v>
@@ -8804,21 +8813,21 @@
     </row>
     <row r="571" spans="1:8">
       <c r="A571" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="572" spans="1:8">
       <c r="B572" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="C572" t="n">
-        <v>3.571</v>
+        <v>3.722</v>
       </c>
       <c r="D572" t="s">
-        <v>359</v>
+        <v>679</v>
       </c>
       <c r="E572" t="s">
-        <v>101</v>
+        <v>680</v>
       </c>
       <c r="F572" t="s">
         <v>11</v>
@@ -8832,21 +8841,21 @@
     </row>
     <row r="574" spans="1:8">
       <c r="A574" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="575" spans="1:8">
       <c r="B575" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C575" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D575" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="E575" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F575" t="s">
         <v>11</v>
@@ -8860,27 +8869,27 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="578" spans="1:8">
       <c r="B578" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="C578" t="n">
-        <v>3.333</v>
+        <v>3.571</v>
       </c>
       <c r="D578" t="s">
-        <v>119</v>
+        <v>359</v>
       </c>
       <c r="E578" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="F578" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G578" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H578" t="s">
         <v>11</v>
@@ -8893,7 +8902,7 @@
     </row>
     <row r="581" spans="1:8">
       <c r="B581" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C581" t="n">
         <v>4</v>
@@ -8921,47 +8930,103 @@
     </row>
     <row r="584" spans="1:8">
       <c r="B584" t="s">
-        <v>626</v>
+        <v>685</v>
       </c>
       <c r="C584" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D584" t="s">
+        <v>119</v>
+      </c>
+      <c r="E584" t="s">
+        <v>160</v>
+      </c>
+      <c r="F584" t="s">
+        <v>120</v>
+      </c>
+      <c r="G584" t="s">
+        <v>160</v>
+      </c>
+      <c r="H584" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="B587" t="s">
+        <v>672</v>
+      </c>
+      <c r="C587" t="n">
+        <v>4</v>
+      </c>
+      <c r="D587" t="s">
+        <v>10</v>
+      </c>
+      <c r="E587" t="s">
+        <v>11</v>
+      </c>
+      <c r="F587" t="s">
+        <v>11</v>
+      </c>
+      <c r="G587" t="s">
+        <v>11</v>
+      </c>
+      <c r="H587" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="B590" t="s">
+        <v>629</v>
+      </c>
+      <c r="C590" t="n">
         <v>3.75</v>
       </c>
-      <c r="D584" t="s">
+      <c r="D590" t="s">
         <v>140</v>
       </c>
-      <c r="E584" t="s">
+      <c r="E590" t="s">
         <v>141</v>
       </c>
-      <c r="F584" t="s">
-        <v>11</v>
-      </c>
-      <c r="G584" t="s">
-        <v>11</v>
-      </c>
-      <c r="H584" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="585" spans="1:8">
-      <c r="B585" t="s">
-        <v>666</v>
-      </c>
-      <c r="C585" t="n">
+      <c r="F590" t="s">
+        <v>11</v>
+      </c>
+      <c r="G590" t="s">
+        <v>11</v>
+      </c>
+      <c r="H590" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="B591" t="s">
+        <v>669</v>
+      </c>
+      <c r="C591" t="n">
         <v>3.667</v>
       </c>
-      <c r="D585" t="s">
+      <c r="D591" t="s">
         <v>119</v>
       </c>
-      <c r="E585" t="s">
+      <c r="E591" t="s">
         <v>100</v>
       </c>
-      <c r="F585" t="s">
-        <v>11</v>
-      </c>
-      <c r="G585" t="s">
-        <v>11</v>
-      </c>
-      <c r="H585" t="s">
+      <c r="F591" t="s">
+        <v>11</v>
+      </c>
+      <c r="G591" t="s">
+        <v>11</v>
+      </c>
+      <c r="H591" t="s">
         <v>11</v>
       </c>
     </row>
